--- a/data/trans_orig/iP30KDA3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDA3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4D96019-A314-4923-A52E-C3D45213A854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0438D57-7CB3-458D-9B69-B0619E5FE0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E2CA76A-4D22-4187-B257-C5C21433A2B7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A7FDDBAC-1E6F-4563-B47B-4363A697BAF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si toman verduras frescas o cocinadas una vez al día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,214 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
     <t>80,72%</t>
   </si>
   <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
   </si>
   <si>
     <t>19,28%</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -756,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7767476E-585C-45D2-9EBD-C03CD0E21B12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174D52CB-A0EF-4783-857F-81C9B7ED5CE0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -874,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7">
-        <v>36089</v>
+        <v>41501</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -889,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I4" s="7">
-        <v>41438</v>
+        <v>37713</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -907,7 +919,7 @@
         <v>141</v>
       </c>
       <c r="N4" s="7">
-        <v>77525</v>
+        <v>79213</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -925,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>7055</v>
+        <v>4994</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -940,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>4855</v>
+        <v>7572</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -958,7 +970,7 @@
         <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>11911</v>
+        <v>12566</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -976,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1009,7 +1021,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1029,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D7" s="7">
-        <v>152640</v>
+        <v>136097</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1044,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="I7" s="7">
-        <v>136318</v>
+        <v>158750</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1062,7 +1074,7 @@
         <v>461</v>
       </c>
       <c r="N7" s="7">
-        <v>288958</v>
+        <v>294848</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1080,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7">
-        <v>22077</v>
+        <v>23202</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1095,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>22447</v>
+        <v>23209</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1113,7 +1125,7 @@
         <v>72</v>
       </c>
       <c r="N8" s="7">
-        <v>44524</v>
+        <v>46411</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1131,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1164,7 +1176,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1184,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D10" s="7">
-        <v>172740</v>
+        <v>150633</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1199,34 +1211,34 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I10" s="7">
-        <v>153442</v>
+        <v>181397</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>409</v>
       </c>
       <c r="N10" s="7">
-        <v>326182</v>
+        <v>332032</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1235,49 +1247,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7">
+        <v>22439</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>37</v>
       </c>
-      <c r="D11" s="7">
-        <v>29738</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="7">
-        <v>30</v>
-      </c>
       <c r="I11" s="7">
-        <v>22671</v>
+        <v>31093</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
       </c>
       <c r="N11" s="7">
-        <v>52409</v>
+        <v>53531</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1286,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1319,7 +1331,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1333,55 +1345,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>270</v>
+      </c>
+      <c r="D13" s="7">
+        <v>225272</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
         <v>272</v>
       </c>
-      <c r="D13" s="7">
-        <v>233281</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>270</v>
-      </c>
       <c r="I13" s="7">
-        <v>209458</v>
+        <v>246193</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>542</v>
       </c>
       <c r="N13" s="7">
-        <v>442739</v>
+        <v>471465</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>71</v>
+      </c>
+      <c r="D14" s="7">
+        <v>48995</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>69</v>
       </c>
-      <c r="D14" s="7">
-        <v>55713</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="7">
-        <v>71</v>
-      </c>
       <c r="I14" s="7">
-        <v>49980</v>
+        <v>58806</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>140</v>
       </c>
       <c r="N14" s="7">
-        <v>105694</v>
+        <v>107801</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1444,7 +1456,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1459,7 +1471,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1474,7 +1486,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1494,49 +1506,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>769</v>
+      </c>
+      <c r="D16" s="7">
+        <v>553504</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>784</v>
       </c>
-      <c r="D16" s="7">
-        <v>594749</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="7">
-        <v>769</v>
-      </c>
       <c r="I16" s="7">
-        <v>540656</v>
+        <v>624054</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1553</v>
       </c>
       <c r="N16" s="7">
-        <v>1135405</v>
+        <v>1177558</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>146</v>
+      </c>
+      <c r="D17" s="7">
+        <v>99630</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>156</v>
       </c>
-      <c r="D17" s="7">
-        <v>114584</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="7">
-        <v>146</v>
-      </c>
       <c r="I17" s="7">
-        <v>99953</v>
+        <v>120679</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>302</v>
       </c>
       <c r="N17" s="7">
-        <v>214537</v>
+        <v>220309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1629,7 +1641,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1643,7 +1655,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
